--- a/upgrade-fuzzy-ahp/calculation-sheet/fuzzy-ahp-nrhes.xlsx
+++ b/upgrade-fuzzy-ahp/calculation-sheet/fuzzy-ahp-nrhes.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Criteria" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Safety" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Flexibility" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Profitability" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Utility" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="30">
   <si>
     <t xml:space="preserve">PC</t>
   </si>
@@ -86,6 +87,33 @@
   </si>
   <si>
     <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTILITY L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTILITY M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTILITY N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTILITY S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRISP WEIGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMZ WEIGHT</t>
   </si>
 </sst>
 </file>
@@ -168,7 +196,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -197,6 +225,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -216,11 +252,11 @@
   </sheetPr>
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M22" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M22" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="T38" activeCellId="0" sqref="T38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="18.92"/>
@@ -1802,21 +1838,21 @@
   </sheetPr>
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N22" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K42" activeCellId="0" sqref="K42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M10" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P38" activeCellId="0" sqref="P38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="24.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="26.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="24.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="24.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="23.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="18.92"/>
@@ -3375,7 +3411,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3390,21 +3426,21 @@
   </sheetPr>
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N32" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N32" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O47" activeCellId="0" sqref="O47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="24.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="26.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="24.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="24.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="23.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="18.92"/>
@@ -4960,7 +4996,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4975,16 +5011,16 @@
   </sheetPr>
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N34" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N34" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="S47" activeCellId="0" sqref="S47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="24.04"/>
@@ -6571,7 +6607,530 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="13.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.19"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4" t="str">
+        <f aca="false">Criteria!P38</f>
+        <v>WEIGHTED L</v>
+      </c>
+      <c r="C1" s="4" t="str">
+        <f aca="false">Criteria!Q38</f>
+        <v>WEIGHTED M</v>
+      </c>
+      <c r="D1" s="4" t="str">
+        <f aca="false">Criteria!R38</f>
+        <v>WEIGHTED N</v>
+      </c>
+      <c r="E1" s="4" t="str">
+        <f aca="false">Criteria!S38</f>
+        <v>WEIGHTED S</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="str">
+        <f aca="false">Criteria!O39</f>
+        <v>Safety</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <f aca="false">Criteria!P39</f>
+        <v>0.615275784262551</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <f aca="false">Criteria!Q39</f>
+        <v>0.667654808977378</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <f aca="false">Criteria!R39</f>
+        <v>0.7815119416759</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <f aca="false">Criteria!S39</f>
+        <v>0.844768678132717</v>
+      </c>
+      <c r="H2" s="7" t="str">
+        <f aca="false">A8</f>
+        <v>Desalination</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <f aca="false">B8*+$B$2+B14*+$B$3+B20*+$B$4</f>
+        <v>0.311205971064822</v>
+      </c>
+      <c r="J2" s="5" t="n">
+        <f aca="false">C8*+$C$2+C14*$C$3+C20*$C$4</f>
+        <v>0.423916511644273</v>
+      </c>
+      <c r="K2" s="5" t="n">
+        <f aca="false">D8*$D$2+D14*$D$3+D20*$D$4</f>
+        <v>0.733218909952685</v>
+      </c>
+      <c r="L2" s="5" t="n">
+        <f aca="false">E8*$E$2+E14*$E$3+E20*$E$4</f>
+        <v>0.970280130988865</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="str">
+        <f aca="false">Criteria!O40</f>
+        <v>Flexibility</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <f aca="false">Criteria!P40</f>
+        <v>0.0592107332303027</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <f aca="false">Criteria!Q40</f>
+        <v>0.0636834877969457</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <f aca="false">Criteria!R40</f>
+        <v>0.0751731815977629</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <f aca="false">Criteria!S40</f>
+        <v>0.0827145741456</v>
+      </c>
+      <c r="H3" s="7" t="str">
+        <f aca="false">A9</f>
+        <v>Hydrogen production</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <f aca="false">B9*+$B$2+B15*+$B$3+B21*+$B$4</f>
+        <v>0.126905618207014</v>
+      </c>
+      <c r="J3" s="5" t="n">
+        <f aca="false">C9*+$C$2+C15*$C$3+C21*$C$4</f>
+        <v>0.176097350858308</v>
+      </c>
+      <c r="K3" s="5" t="n">
+        <f aca="false">D9*$D$2+D15*$D$3+D21*$D$4</f>
+        <v>0.31668041802492</v>
+      </c>
+      <c r="L3" s="5" t="n">
+        <f aca="false">E9*$E$2+E15*$E$3+E21*$E$4</f>
+        <v>0.435086789044521</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="str">
+        <f aca="false">Criteria!O41</f>
+        <v>Profitability</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <f aca="false">Criteria!P41</f>
+        <v>0.178593199151797</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <f aca="false">Criteria!Q41</f>
+        <v>0.192777629596273</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <f aca="false">Criteria!R41</f>
+        <v>0.225430195231271</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <f aca="false">Criteria!S41</f>
+        <v>0.244740140786541</v>
+      </c>
+      <c r="H4" s="7" t="str">
+        <f aca="false">A10</f>
+        <v>Synthetic fuels production</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <f aca="false">B10*+$B$2+B16*+$B$3+B22*+$B$4</f>
+        <v>0.116618495266887</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <f aca="false">C10*+$C$2+C16*$C$3+C22*$C$4</f>
+        <v>0.154819608757511</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <f aca="false">D10*$D$2+D16*$D$3+D22*$D$4</f>
+        <v>0.275059230196011</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <f aca="false">E10*$E$2+E16*$E$3+E22*$E$4</f>
+        <v>0.397603167101401</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="str">
+        <f aca="false">Safety!P38</f>
+        <v>WEIGHTED L</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f aca="false">Safety!Q38</f>
+        <v>WEIGHTED M</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f aca="false">Safety!R38</f>
+        <v>WEIGHTED N</v>
+      </c>
+      <c r="E7" s="4" t="str">
+        <f aca="false">Safety!S38</f>
+        <v>WEIGHTED S</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="str">
+        <f aca="false">Safety!O39</f>
+        <v>Desalination</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <f aca="false">Safety!P39</f>
+        <v>0.429502278769971</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <f aca="false">Safety!Q39</f>
+        <v>0.539689778467164</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <f aca="false">Safety!R39</f>
+        <v>0.802261084646457</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <f aca="false">Safety!S39</f>
+        <v>0.982035614498173</v>
+      </c>
+      <c r="H8" s="7" t="str">
+        <f aca="false">A14</f>
+        <v>Desalination</v>
+      </c>
+      <c r="I8" s="8" t="n">
+        <f aca="false">(I2+2*J2+2*K2+L2)/6</f>
+        <v>0.599292824207934</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <f aca="false">I8/$I$11</f>
+        <v>0.5517262740203</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="str">
+        <f aca="false">Safety!O40</f>
+        <v>Hydrogen production</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <f aca="false">Safety!P40</f>
+        <v>0.115030315063023</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <f aca="false">Safety!Q40</f>
+        <v>0.148608235418182</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <f aca="false">Safety!R40</f>
+        <v>0.235588133061983</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <f aca="false">Safety!S40</f>
+        <v>0.303674499675036</v>
+      </c>
+      <c r="H9" s="7" t="str">
+        <f aca="false">A15</f>
+        <v>Hydrogen production</v>
+      </c>
+      <c r="I9" s="8" t="n">
+        <f aca="false">(I3+2*J3+2*K3+L3)/6</f>
+        <v>0.257924657502999</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <f aca="false">I9/$I$11</f>
+        <v>0.237452885323914</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="str">
+        <f aca="false">Safety!O41</f>
+        <v>Synthetic fuels production</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <f aca="false">Safety!P41</f>
+        <v>0.100215132532938</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <f aca="false">Safety!Q41</f>
+        <v>0.122823658160164</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <f aca="false">Safety!R41</f>
+        <v>0.195011442367588</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <f aca="false">Safety!S41</f>
+        <v>0.265284110554681</v>
+      </c>
+      <c r="H10" s="7" t="str">
+        <f aca="false">A16</f>
+        <v>Synthetic fuels production</v>
+      </c>
+      <c r="I10" s="8" t="n">
+        <f aca="false">(I4+2*J4+2*K4+L4)/6</f>
+        <v>0.228996556712555</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <f aca="false">I10/$I$11</f>
+        <v>0.210820840655785</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H11" s="7"/>
+      <c r="I11" s="3" t="n">
+        <f aca="false">SUM(I8:I10)</f>
+        <v>1.08621403842349</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <f aca="false">SUM(J8:J10)</f>
+        <v>1</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H12" s="7"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4" t="str">
+        <f aca="false">Flexibility!P38</f>
+        <v>WEIGHTED L</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f aca="false">Flexibility!Q38</f>
+        <v>WEIGHTED M</v>
+      </c>
+      <c r="D13" s="4" t="str">
+        <f aca="false">Flexibility!R38</f>
+        <v>WEIGHTED N</v>
+      </c>
+      <c r="E13" s="4" t="str">
+        <f aca="false">Flexibility!S38</f>
+        <v>WEIGHTED S</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="str">
+        <f aca="false">Flexibility!O39</f>
+        <v>Desalination</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <f aca="false">Flexibility!P39</f>
+        <v>0.444846822946787</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <f aca="false">Flexibility!Q39</f>
+        <v>0.55695373228758</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <f aca="false">Flexibility!R39</f>
+        <v>0.806981734601139</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <f aca="false">Flexibility!S39</f>
+        <v>0.976061159026208</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="str">
+        <f aca="false">Flexibility!O40</f>
+        <v>Hydrogen production</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <f aca="false">Flexibility!P40</f>
+        <v>0.150471279250704</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <f aca="false">Flexibility!Q40</f>
+        <v>0.18370744424311</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <f aca="false">Flexibility!R40</f>
+        <v>0.275992569674772</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <f aca="false">Flexibility!S40</f>
+        <v>0.35717861722494</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="str">
+        <f aca="false">Flexibility!O41</f>
+        <v>Synthetic fuels production</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <f aca="false">Flexibility!P41</f>
+        <v>0.0747256000285804</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <f aca="false">Flexibility!Q41</f>
+        <v>0.0872765386895602</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <f aca="false">Flexibility!R41</f>
+        <v>0.124846020389427</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <f aca="false">Flexibility!S41</f>
+        <v>0.159200189496938</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="4" t="str">
+        <f aca="false">Profitability!P38</f>
+        <v>WEIGHTED L</v>
+      </c>
+      <c r="C19" s="4" t="str">
+        <f aca="false">Profitability!Q38</f>
+        <v>WEIGHTED M</v>
+      </c>
+      <c r="D19" s="4" t="str">
+        <f aca="false">Profitability!R38</f>
+        <v>WEIGHTED N</v>
+      </c>
+      <c r="E19" s="4" t="str">
+        <f aca="false">Profitability!S38</f>
+        <v>WEIGHTED S</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="str">
+        <f aca="false">Profitability!O39</f>
+        <v>Desalination</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <f aca="false">Profitability!P39</f>
+        <v>0.115367848205199</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <f aca="false">Profitability!Q39</f>
+        <v>0.145874184364797</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <f aca="false">Profitability!R39</f>
+        <v>0.202186346117521</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <f aca="false">Profitability!S39</f>
+        <v>0.244964801231233</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="str">
+        <f aca="false">Profitability!O40</f>
+        <v>Hydrogen production</v>
+      </c>
+      <c r="B21" s="5" t="n">
+        <f aca="false">Profitability!P40</f>
+        <v>0.264403887395359</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <f aca="false">Profitability!Q40</f>
+        <v>0.338105708533478</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <f aca="false">Profitability!R40</f>
+        <v>0.496021569095209</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <f aca="false">Profitability!S40</f>
+        <v>0.608842528548328</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="str">
+        <f aca="false">Profitability!O41</f>
+        <v>Synthetic fuels production</v>
+      </c>
+      <c r="B22" s="5" t="n">
+        <f aca="false">Profitability!P41</f>
+        <v>0.282955866594838</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <f aca="false">Profitability!Q41</f>
+        <v>0.348887619818456</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <f aca="false">Profitability!R41</f>
+        <v>0.502463241641617</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <f aca="false">Profitability!S41</f>
+        <v>0.655108243809546</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/upgrade-fuzzy-ahp/calculation-sheet/fuzzy-ahp-nrhes.xlsx
+++ b/upgrade-fuzzy-ahp/calculation-sheet/fuzzy-ahp-nrhes.xlsx
@@ -252,11 +252,11 @@
   </sheetPr>
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M22" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T38" activeCellId="0" sqref="T38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R39" activeCellId="0" sqref="R39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="18.92"/>
@@ -430,7 +430,7 @@
         <v>0.133333333333333</v>
       </c>
       <c r="M3" s="5" t="n">
-        <f aca="false">F4^-1</f>
+        <f aca="false">$F$4^-1</f>
         <v>0.142857142857143</v>
       </c>
       <c r="O3" s="2" t="s">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="P39" s="5" t="n">
         <f aca="false">P32/+$S$36</f>
-        <v>0.615275784262551</v>
+        <v>0.615275784262552</v>
       </c>
       <c r="Q39" s="5" t="n">
         <f aca="false">Q32/+$R$36</f>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="P40" s="5" t="n">
         <f aca="false">P33/+$S$36</f>
-        <v>0.0592107332303027</v>
+        <v>0.0592107332303028</v>
       </c>
       <c r="Q40" s="5" t="n">
         <f aca="false">Q33/+$R$36</f>
@@ -1823,7 +1823,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1838,11 +1838,11 @@
   </sheetPr>
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M10" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P38" activeCellId="0" sqref="P38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K3" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P32" activeCellId="0" sqref="P32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.5"/>
@@ -3411,7 +3411,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3430,7 +3430,7 @@
       <selection pane="topLeft" activeCell="O47" activeCellId="0" sqref="O47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.5"/>
@@ -4996,7 +4996,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5015,7 +5015,7 @@
       <selection pane="topLeft" activeCell="S47" activeCellId="0" sqref="S47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.5"/>
@@ -6607,7 +6607,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6623,10 +6623,10 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.85"/>
@@ -6635,7 +6635,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.19"/>
   </cols>
   <sheetData>
@@ -6682,7 +6682,7 @@
       </c>
       <c r="B2" s="5" t="n">
         <f aca="false">Criteria!P39</f>
-        <v>0.615275784262551</v>
+        <v>0.615275784262552</v>
       </c>
       <c r="C2" s="5" t="n">
         <f aca="false">Criteria!Q39</f>
@@ -6724,7 +6724,7 @@
       </c>
       <c r="B3" s="5" t="n">
         <f aca="false">Criteria!P40</f>
-        <v>0.0592107332303027</v>
+        <v>0.0592107332303028</v>
       </c>
       <c r="C3" s="5" t="n">
         <f aca="false">Criteria!Q40</f>
@@ -7130,7 +7130,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/upgrade-fuzzy-ahp/calculation-sheet/fuzzy-ahp-nrhes.xlsx
+++ b/upgrade-fuzzy-ahp/calculation-sheet/fuzzy-ahp-nrhes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Criteria" sheetId="1" state="visible" r:id="rId2"/>
@@ -256,7 +256,7 @@
       <selection pane="topLeft" activeCell="R39" activeCellId="0" sqref="R39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="18.92"/>
@@ -1842,7 +1842,7 @@
       <selection pane="topLeft" activeCell="P32" activeCellId="0" sqref="P32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.5"/>
@@ -3426,11 +3426,11 @@
   </sheetPr>
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N32" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O47" activeCellId="0" sqref="O47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.5"/>
@@ -5011,11 +5011,11 @@
   </sheetPr>
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N34" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S47" activeCellId="0" sqref="S47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.5"/>
@@ -5401,8 +5401,8 @@
         <v>0.125</v>
       </c>
       <c r="K8" s="5" t="n">
-        <f aca="false">2/11</f>
-        <v>0.181818181818182</v>
+        <f aca="false">2/15</f>
+        <v>0.133333333333333</v>
       </c>
       <c r="L8" s="5" t="n">
         <f aca="false">2/13</f>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="Q8" s="5" t="n">
         <f aca="false">(C8*G8*K8)^(1/3)</f>
-        <v>0.648499317248028</v>
+        <v>0.584803547642573</v>
       </c>
       <c r="R8" s="5" t="n">
         <f aca="false">(D8*H8*L8)^(1/3)</f>
@@ -5513,8 +5513,7 @@
         <v>6.5</v>
       </c>
       <c r="D10" s="5" t="n">
-        <f aca="false">K8^-1</f>
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="E10" s="5" t="n">
         <f aca="false">J8^-1</f>
@@ -5560,7 +5559,7 @@
       </c>
       <c r="R10" s="5" t="n">
         <f aca="false">(D10*H10*L10)^(1/3)</f>
-        <v>1.54202166972758</v>
+        <v>1.7099759466767</v>
       </c>
       <c r="S10" s="5" t="n">
         <f aca="false">(E10*I10*M10)^(1/3)</f>
@@ -6446,7 +6445,7 @@
       </c>
       <c r="Q32" s="5" t="n">
         <f aca="false">(Q2*Q8*Q14*Q20*Q26)^(1/5)</f>
-        <v>0.517620676021459</v>
+        <v>0.507027728346412</v>
       </c>
       <c r="R32" s="5" t="n">
         <f aca="false">(R2*R8*R14*R20*R26)^(1/5)</f>
@@ -6498,7 +6497,7 @@
       </c>
       <c r="R34" s="5" t="n">
         <f aca="false">(R4*R10*R16*R22*R28)^(1/5)</f>
-        <v>1.48495534123849</v>
+        <v>1.51597939248875</v>
       </c>
       <c r="S34" s="5" t="n">
         <f aca="false">(S4*S10*S16*S22*S28)^(1/5)</f>
@@ -6516,11 +6515,11 @@
       </c>
       <c r="Q36" s="3" t="n">
         <f aca="false">SUM(Q32:Q34)</f>
-        <v>2.95535119422256</v>
+        <v>2.94475824654752</v>
       </c>
       <c r="R36" s="3" t="n">
         <f aca="false">SUM(R32:R34)</f>
-        <v>3.54840493727808</v>
+        <v>3.57942898852834</v>
       </c>
       <c r="S36" s="3" t="n">
         <f aca="false">SUM(S32:S34)</f>
@@ -6551,11 +6550,11 @@
       </c>
       <c r="Q39" s="5" t="n">
         <f aca="false">Q32/+$R$36</f>
-        <v>0.145874184364797</v>
+        <v>0.141650450385069</v>
       </c>
       <c r="R39" s="5" t="n">
         <f aca="false">R32/+$Q$36</f>
-        <v>0.202186346117521</v>
+        <v>0.202913655188662</v>
       </c>
       <c r="S39" s="5" t="n">
         <f aca="false">S32/+$P$36</f>
@@ -6572,11 +6571,11 @@
       </c>
       <c r="Q40" s="5" t="n">
         <f aca="false">Q33/+$R$36</f>
-        <v>0.338105708533478</v>
+        <v>0.335175238655974</v>
       </c>
       <c r="R40" s="5" t="n">
         <f aca="false">R33/+$Q$36</f>
-        <v>0.496021569095209</v>
+        <v>0.49780586854773</v>
       </c>
       <c r="S40" s="5" t="n">
         <f aca="false">S33/+$P$36</f>
@@ -6593,11 +6592,11 @@
       </c>
       <c r="Q41" s="5" t="n">
         <f aca="false">Q34/+$R$36</f>
-        <v>0.348887619818456</v>
+        <v>0.345863699681329</v>
       </c>
       <c r="R41" s="5" t="n">
         <f aca="false">R34/+$Q$36</f>
-        <v>0.502463241641617</v>
+        <v>0.514806060655779</v>
       </c>
       <c r="S41" s="5" t="n">
         <f aca="false">S34/+$P$36</f>
@@ -6622,11 +6621,11 @@
   </sheetPr>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.85"/>
@@ -6706,11 +6705,11 @@
       </c>
       <c r="J2" s="5" t="n">
         <f aca="false">C8*+$C$2+C14*$C$3+C20*$C$4</f>
-        <v>0.423916511644273</v>
+        <v>0.423102270219615</v>
       </c>
       <c r="K2" s="5" t="n">
         <f aca="false">D8*$D$2+D14*$D$3+D20*$D$4</f>
-        <v>0.733218909952685</v>
+        <v>0.733382867378586</v>
       </c>
       <c r="L2" s="5" t="n">
         <f aca="false">E8*$E$2+E14*$E$3+E20*$E$4</f>
@@ -6748,11 +6747,11 @@
       </c>
       <c r="J3" s="5" t="n">
         <f aca="false">C9*+$C$2+C15*$C$3+C21*$C$4</f>
-        <v>0.176097350858308</v>
+        <v>0.17553242182172</v>
       </c>
       <c r="K3" s="5" t="n">
         <f aca="false">D9*$D$2+D15*$D$3+D21*$D$4</f>
-        <v>0.31668041802492</v>
+        <v>0.317082652998853</v>
       </c>
       <c r="L3" s="5" t="n">
         <f aca="false">E9*$E$2+E15*$E$3+E21*$E$4</f>
@@ -6790,11 +6789,11 @@
       </c>
       <c r="J4" s="5" t="n">
         <f aca="false">C10*+$C$2+C16*$C$3+C22*$C$4</f>
-        <v>0.154819608757511</v>
+        <v>0.154236664601387</v>
       </c>
       <c r="K4" s="5" t="n">
         <f aca="false">D10*$D$2+D16*$D$3+D22*$D$4</f>
-        <v>0.275059230196011</v>
+        <v>0.277841674296078</v>
       </c>
       <c r="L4" s="5" t="n">
         <f aca="false">E10*$E$2+E16*$E$3+E22*$E$4</f>
@@ -6858,11 +6857,11 @@
       </c>
       <c r="I8" s="8" t="n">
         <f aca="false">(I2+2*J2+2*K2+L2)/6</f>
-        <v>0.599292824207934</v>
+        <v>0.599076062875015</v>
       </c>
       <c r="J8" s="5" t="n">
         <f aca="false">I8/$I$11</f>
-        <v>0.5517262740203</v>
+        <v>0.551292147603518</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6892,11 +6891,11 @@
       </c>
       <c r="I9" s="8" t="n">
         <f aca="false">(I3+2*J3+2*K3+L3)/6</f>
-        <v>0.257924657502999</v>
+        <v>0.25787042614878</v>
       </c>
       <c r="J9" s="5" t="n">
         <f aca="false">I9/$I$11</f>
-        <v>0.237452885323914</v>
+        <v>0.237301988586806</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6926,18 +6925,18 @@
       </c>
       <c r="I10" s="8" t="n">
         <f aca="false">(I4+2*J4+2*K4+L4)/6</f>
-        <v>0.228996556712555</v>
+        <v>0.229729723360536</v>
       </c>
       <c r="J10" s="5" t="n">
         <f aca="false">I10/$I$11</f>
-        <v>0.210820840655785</v>
+        <v>0.211405863809676</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H11" s="7"/>
       <c r="I11" s="3" t="n">
         <f aca="false">SUM(I8:I10)</f>
-        <v>1.08621403842349</v>
+        <v>1.08667621238433</v>
       </c>
       <c r="J11" s="3" t="n">
         <f aca="false">SUM(J8:J10)</f>
@@ -7072,11 +7071,11 @@
       </c>
       <c r="C20" s="5" t="n">
         <f aca="false">Profitability!Q39</f>
-        <v>0.145874184364797</v>
+        <v>0.141650450385069</v>
       </c>
       <c r="D20" s="5" t="n">
         <f aca="false">Profitability!R39</f>
-        <v>0.202186346117521</v>
+        <v>0.202913655188662</v>
       </c>
       <c r="E20" s="5" t="n">
         <f aca="false">Profitability!S39</f>
@@ -7094,11 +7093,11 @@
       </c>
       <c r="C21" s="5" t="n">
         <f aca="false">Profitability!Q40</f>
-        <v>0.338105708533478</v>
+        <v>0.335175238655974</v>
       </c>
       <c r="D21" s="5" t="n">
         <f aca="false">Profitability!R40</f>
-        <v>0.496021569095209</v>
+        <v>0.49780586854773</v>
       </c>
       <c r="E21" s="5" t="n">
         <f aca="false">Profitability!S40</f>
@@ -7116,11 +7115,11 @@
       </c>
       <c r="C22" s="5" t="n">
         <f aca="false">Profitability!Q41</f>
-        <v>0.348887619818456</v>
+        <v>0.345863699681329</v>
       </c>
       <c r="D22" s="5" t="n">
         <f aca="false">Profitability!R41</f>
-        <v>0.502463241641617</v>
+        <v>0.514806060655779</v>
       </c>
       <c r="E22" s="5" t="n">
         <f aca="false">Profitability!S41</f>
